--- a/data/fisheries/participation/msqd_laa.xlsx
+++ b/data/fisheries/participation/msqd_laa.xlsx
@@ -2,7 +2,7 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <x:workbook xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Export" sheetId="1" r:id="R7b1f3a57b2e7490f"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Export" sheetId="1" r:id="R0345da6e457c4180"/>
   </x:sheets>
 </x:workbook>
 </file>
@@ -12,7 +12,6 @@
   <x:numFmts>
     <x:numFmt numFmtId="181" formatCode="0"/>
     <x:numFmt numFmtId="182" formatCode="#,0"/>
-    <x:numFmt numFmtId="183" formatCode="\$#,0;(\$#,0);\$#,0"/>
   </x:numFmts>
   <x:fonts>
     <x:font/>
@@ -52,9 +51,7 @@
     </x:xf>
     <x:xf numFmtId="181"/>
     <x:xf numFmtId="182"/>
-    <x:xf numFmtId="183"/>
     <x:xf numFmtId="182" fontId="1"/>
-    <x:xf numFmtId="183" fontId="1"/>
   </x:cellXfs>
 </x:styleSheet>
 </file>
@@ -75,7 +72,7 @@
       </x:c>
       <x:c s="2" t="inlineStr">
         <x:is>
-          <x:t>Value</x:t>
+          <x:t>Participation</x:t>
         </x:is>
       </x:c>
     </x:row>
@@ -86,8 +83,8 @@
       <x:c s="9">
         <x:v>15775635.25</x:v>
       </x:c>
-      <x:c s="10">
-        <x:v>880448.0125</x:v>
+      <x:c s="9">
+        <x:v>54</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -97,8 +94,8 @@
       <x:c s="9">
         <x:v>18277519</x:v>
       </x:c>
-      <x:c s="10">
-        <x:v>955663.99</x:v>
+      <x:c s="9">
+        <x:v>61</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -108,8 +105,8 @@
       <x:c s="9">
         <x:v>9463966.25</x:v>
       </x:c>
-      <x:c s="10">
-        <x:v>574719.75</x:v>
+      <x:c s="9">
+        <x:v>51</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -119,8 +116,8 @@
       <x:c s="9">
         <x:v>1882528.75</x:v>
       </x:c>
-      <x:c s="10">
-        <x:v>325951.525</x:v>
+      <x:c s="9">
+        <x:v>44</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -130,8 +127,8 @@
       <x:c s="9">
         <x:v>111439</x:v>
       </x:c>
-      <x:c s="10">
-        <x:v>26755</x:v>
+      <x:c s="9">
+        <x:v>7</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -141,8 +138,8 @@
       <x:c s="9">
         <x:v>6827710</x:v>
       </x:c>
-      <x:c s="10">
-        <x:v>1007200.725</x:v>
+      <x:c s="9">
+        <x:v>45</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -152,8 +149,8 @@
       <x:c s="9">
         <x:v>17912084.5</x:v>
       </x:c>
-      <x:c s="10">
-        <x:v>1841509.33</x:v>
+      <x:c s="9">
+        <x:v>43</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -163,8 +160,8 @@
       <x:c s="9">
         <x:v>11952280</x:v>
       </x:c>
-      <x:c s="10">
-        <x:v>1111809.36</x:v>
+      <x:c s="9">
+        <x:v>41</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -174,8 +171,8 @@
       <x:c s="9">
         <x:v>33267982</x:v>
       </x:c>
-      <x:c s="10">
-        <x:v>3067195.01</x:v>
+      <x:c s="9">
+        <x:v>51</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -185,8 +182,8 @@
       <x:c s="9">
         <x:v>36053225.59</x:v>
       </x:c>
-      <x:c s="10">
-        <x:v>2078650.09</x:v>
+      <x:c s="9">
+        <x:v>48</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -196,8 +193,8 @@
       <x:c s="9">
         <x:v>21601040.5</x:v>
       </x:c>
-      <x:c s="10">
-        <x:v>1267938.81</x:v>
+      <x:c s="9">
+        <x:v>43</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -207,8 +204,8 @@
       <x:c s="9">
         <x:v>27132920</x:v>
       </x:c>
-      <x:c s="10">
-        <x:v>1414801.52</x:v>
+      <x:c s="9">
+        <x:v>37</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -218,8 +215,8 @@
       <x:c s="9">
         <x:v>3748948</x:v>
       </x:c>
-      <x:c s="10">
-        <x:v>256223.7</x:v>
+      <x:c s="9">
+        <x:v>18</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -229,8 +226,8 @@
       <x:c s="9">
         <x:v>28416589</x:v>
       </x:c>
-      <x:c s="10">
-        <x:v>2338636.54</x:v>
+      <x:c s="9">
+        <x:v>44</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -240,8 +237,8 @@
       <x:c s="9">
         <x:v>24760165.3</x:v>
       </x:c>
-      <x:c s="10">
-        <x:v>2388437.07</x:v>
+      <x:c s="9">
+        <x:v>42</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -251,8 +248,8 @@
       <x:c s="9">
         <x:v>40610098</x:v>
       </x:c>
-      <x:c s="10">
-        <x:v>4947914.155</x:v>
+      <x:c s="9">
+        <x:v>59</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -262,8 +259,8 @@
       <x:c s="9">
         <x:v>32816966</x:v>
       </x:c>
-      <x:c s="10">
-        <x:v>4314741.81</x:v>
+      <x:c s="9">
+        <x:v>64</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -273,8 +270,8 @@
       <x:c s="9">
         <x:v>39323585.5</x:v>
       </x:c>
-      <x:c s="10">
-        <x:v>5784980.77</x:v>
+      <x:c s="9">
+        <x:v>56</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -284,8 +281,8 @@
       <x:c s="9">
         <x:v>501750</x:v>
       </x:c>
-      <x:c s="10">
-        <x:v>128663.03</x:v>
+      <x:c s="9">
+        <x:v>20</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -295,8 +292,8 @@
       <x:c s="9">
         <x:v>61045969.5</x:v>
       </x:c>
-      <x:c s="10">
-        <x:v>9044036.0625</x:v>
+      <x:c s="9">
+        <x:v>76</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -306,8 +303,8 @@
       <x:c s="9">
         <x:v>98662298</x:v>
       </x:c>
-      <x:c s="10">
-        <x:v>11287161.7075</x:v>
+      <x:c s="9">
+        <x:v>88</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -317,8 +314,8 @@
       <x:c s="9">
         <x:v>86355526.6</x:v>
       </x:c>
-      <x:c s="10">
-        <x:v>8489150.297</x:v>
+      <x:c s="9">
+        <x:v>62</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -328,8 +325,8 @@
       <x:c s="9">
         <x:v>62082864</x:v>
       </x:c>
-      <x:c s="10">
-        <x:v>6431776.37</x:v>
+      <x:c s="9">
+        <x:v>73</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -339,8 +336,8 @@
       <x:c s="9">
         <x:v>17107271</x:v>
       </x:c>
-      <x:c s="10">
-        <x:v>4453470.065</x:v>
+      <x:c s="9">
+        <x:v>43</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -350,8 +347,8 @@
       <x:c s="9">
         <x:v>23175126</x:v>
       </x:c>
-      <x:c s="10">
-        <x:v>4848672.4305</x:v>
+      <x:c s="9">
+        <x:v>73</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -361,8 +358,8 @@
       <x:c s="9">
         <x:v>70207733</x:v>
       </x:c>
-      <x:c s="10">
-        <x:v>18683652.295</x:v>
+      <x:c s="9">
+        <x:v>90</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -372,8 +369,8 @@
       <x:c s="9">
         <x:v>81806330</x:v>
       </x:c>
-      <x:c s="10">
-        <x:v>20392648.475</x:v>
+      <x:c s="9">
+        <x:v>89</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -383,8 +380,8 @@
       <x:c s="9">
         <x:v>29453239</x:v>
       </x:c>
-      <x:c s="10">
-        <x:v>8125059.53</x:v>
+      <x:c s="9">
+        <x:v>61</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -394,8 +391,8 @@
       <x:c s="9">
         <x:v>39137349</x:v>
       </x:c>
-      <x:c s="10">
-        <x:v>12193190.08</x:v>
+      <x:c s="9">
+        <x:v>80</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -405,8 +402,8 @@
       <x:c s="9">
         <x:v>65132525.870000005</x:v>
       </x:c>
-      <x:c s="10">
-        <x:v>19638664.7295</x:v>
+      <x:c s="9">
+        <x:v>76</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -416,8 +413,8 @@
       <x:c s="9">
         <x:v>118063974</x:v>
       </x:c>
-      <x:c s="10">
-        <x:v>29399097.8</x:v>
+      <x:c s="9">
+        <x:v>76</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -427,8 +424,8 @@
       <x:c s="9">
         <x:v>112626415.4</x:v>
       </x:c>
-      <x:c s="10">
-        <x:v>28410509.04</x:v>
+      <x:c s="9">
+        <x:v>79</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -438,8 +435,8 @@
       <x:c s="9">
         <x:v>112577326.3</x:v>
       </x:c>
-      <x:c s="10">
-        <x:v>33574160.507</x:v>
+      <x:c s="9">
+        <x:v>97</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -449,8 +446,8 @@
       <x:c s="9">
         <x:v>79962664.13</x:v>
       </x:c>
-      <x:c s="10">
-        <x:v>25650424.48</x:v>
+      <x:c s="9">
+        <x:v>61</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -460,8 +457,8 @@
       <x:c s="9">
         <x:v>34405183.3</x:v>
       </x:c>
-      <x:c s="10">
-        <x:v>10824892.61</x:v>
+      <x:c s="9">
+        <x:v>36</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -471,8 +468,8 @@
       <x:c s="9">
         <x:v>1920305</x:v>
       </x:c>
-      <x:c s="10">
-        <x:v>622757.05</x:v>
+      <x:c s="9">
+        <x:v>12</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -482,8 +479,8 @@
       <x:c s="9">
         <x:v>18704992</x:v>
       </x:c>
-      <x:c s="10">
-        <x:v>9289741.15</x:v>
+      <x:c s="9">
+        <x:v>51</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -493,8 +490,8 @@
       <x:c s="9">
         <x:v>28816361</x:v>
       </x:c>
-      <x:c s="10">
-        <x:v>14408780.85</x:v>
+      <x:c s="9">
+        <x:v>49</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -504,8 +501,8 @@
       <x:c s="9">
         <x:v>14902426</x:v>
       </x:c>
-      <x:c s="10">
-        <x:v>7321293.45</x:v>
+      <x:c s="9">
+        <x:v>36</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -515,8 +512,8 @@
       <x:c s="9">
         <x:v>11980598</x:v>
       </x:c>
-      <x:c s="10">
-        <x:v>5960511.76</x:v>
+      <x:c s="9">
+        <x:v>29</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -526,8 +523,8 @@
       <x:c s="9">
         <x:v>7056485</x:v>
       </x:c>
-      <x:c s="10">
-        <x:v>3616181.545</x:v>
+      <x:c s="9">
+        <x:v>31</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -537,8 +534,8 @@
       <x:c s="9">
         <x:v>16687472</x:v>
       </x:c>
-      <x:c s="10">
-        <x:v>10093619.855</x:v>
+      <x:c s="9">
+        <x:v>39</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -548,8 +545,8 @@
       <x:c s="9">
         <x:v>32238473</x:v>
       </x:c>
-      <x:c s="10">
-        <x:v>19334744.047</x:v>
+      <x:c s="9">
+        <x:v>36</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -559,8 +556,8 @@
       <x:c s="9">
         <x:v>31283468.4</x:v>
       </x:c>
-      <x:c s="10">
-        <x:v>18533103.44</x:v>
+      <x:c s="9">
+        <x:v>45</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -569,11 +566,11 @@
           <x:t>Total</x:t>
         </x:is>
       </x:c>
-      <x:c s="11">
+      <x:c s="10">
         <x:v>1625828808.1399999</x:v>
       </x:c>
-      <x:c s="12">
-        <x:v>375339539.8235</x:v>
+      <x:c s="10">
+        <x:v>504</x:v>
       </x:c>
     </x:row>
     <x:row/>
